--- a/topic_split/topic_5.xlsx
+++ b/topic_split/topic_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>issue</t>
   </si>
@@ -22,97 +22,163 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
-  </si>
-  <si>
-    <t>[0.00632679 0.00343015 0.00875661 0.00335001 0.03299546 0.01469568
- 0.00922925 0.01669277 0.00997054 0.00636138 0.01583382 0.00963398
- 0.01081428 0.00417111 0.00991397 0.00751234 0.01036711 0.00826717
- 0.00981395 0.00790991 0.01194431 0.01075744 0.01761109 0.00668836
- 0.01052489]</t>
-  </si>
-  <si>
-    <t>[3.17517355e-308 1.53558873e-308 3.45896895e-308 1.50008932e-308
- 1.00000000e+000 7.31156161e-308 3.69456664e-308 6.19884637e-308
- 3.74077841e-308 2.83361005e-308 5.56614857e-308 3.71062014e-308
- 4.02160331e-308 1.83387969e-308 4.05140601e-308 3.32073185e-308
- 4.95787294e-308 3.51589032e-308 4.10374893e-308 3.38218460e-308
- 4.28524018e-308 4.61528346e-308 5.88215333e-308 2.94144561e-308
- 3.97358941e-308]</t>
-  </si>
-  <si>
-    <t>[3.13858437e-308 1.51813050e-308 3.38654594e-308 1.48212115e-308
- 1.00000000e+000 7.02142049e-308 3.60016787e-308 5.88486777e-308
- 3.65859595e-308 2.79095657e-308 5.35871146e-308 3.64364148e-308
- 3.88447155e-308 1.80849892e-308 3.93270892e-308 3.26807140e-308
- 4.83004142e-308 3.43361541e-308 4.01039841e-308 3.31440120e-308
- 4.15714097e-308 4.48874872e-308 5.55871579e-308 2.88874145e-308
- 3.87605860e-308]</t>
-  </si>
-  <si>
-    <t>[0.01351848 0.00653597 0.01470962 0.006374   0.23194096 0.03253132
- 0.01643879 0.02818017 0.01636756 0.01233675 0.02581541 0.0161323
- 0.01771249 0.00784785 0.01798482 0.01457739 0.02190316 0.01548307
- 0.01837684 0.01493314 0.01871612 0.02080745 0.02637154 0.01284636
- 0.01763806]</t>
-  </si>
-  <si>
-    <t>[0.01592627 0.00756426 0.01668866 0.00738171 0.53119198 0.03774426
- 0.01852832 0.03152779 0.01828634 0.01412399 0.02807425 0.01804244
- 0.01996032 0.00905612 0.02034452 0.01660448 0.0253827  0.017611
- 0.02068613 0.01695176 0.02091547 0.02352665 0.02952628 0.01469515
- 0.01962544]</t>
-  </si>
-  <si>
-    <t>[0.01279074 0.00566011 0.01183059 0.00552803 0.11316805 0.03147943
- 0.01375668 0.02373107 0.01291399 0.01072201 0.02029841 0.01269431
- 0.01456176 0.0067695  0.0153315  0.01257873 0.02063575 0.01333822
- 0.01555647 0.01280556 0.01483536 0.01818447 0.02165001 0.01118419
- 0.01407504]</t>
-  </si>
-  <si>
-    <t>[0.01452011 0.00691113 0.01558674 0.00675211 0.2767337  0.0323001
- 0.01643808 0.02720417 0.0166939  0.01303832 0.02489318 0.01676374
- 0.01797765 0.00825761 0.01792163 0.01537117 0.02256207 0.01559727
- 0.01901156 0.01555338 0.01919023 0.02127508 0.02641723 0.01350261
- 0.01813356]</t>
-  </si>
-  <si>
-    <t>[0.00898516 0.00461006 0.01100853 0.0045031  0.05961546 0.02272055
- 0.01242537 0.02350819 0.01253966 0.00858572 0.02081245 0.01202739
- 0.01398174 0.00558796 0.01368224 0.01011225 0.01504395 0.01144077
- 0.01308942 0.01061216 0.01483808 0.01482583 0.02261615 0.00904071
- 0.01327956]</t>
-  </si>
-  <si>
-    <t>[3.11736831e-308 1.51590126e-308 3.39641873e-308 1.47985121e-308
- 1.00000000e+000 6.88590697e-308 3.57904908e-308 5.81128875e-308
- 3.66074386e-308 2.78418808e-308 5.32202349e-308 3.65453771e-308
- 3.86945264e-308 1.80526608e-308 3.89968446e-308 3.26074262e-308
- 4.77477679e-308 3.40749743e-308 3.99792292e-308 3.30385700e-308
- 4.16120907e-308 4.45791826e-308 5.51962747e-308 2.87929002e-308
- 3.87691224e-308]</t>
-  </si>
-  <si>
-    <t>[0.01591874 0.00770763 0.01751515 0.00752977 0.45895423 0.03739701
- 0.01889783 0.0325187  0.01902848 0.01436476 0.02895965 0.0188175
- 0.02077162 0.00924042 0.02071905 0.01688869 0.02531726 0.01785297
- 0.02111404 0.01728215 0.02199832 0.02383434 0.03125719 0.01495802
- 0.02040192]</t>
-  </si>
-  <si>
-    <t>[0.01677603 0.00785737 0.01720091 0.0076721  0.45399574 0.03968175
- 0.0190773  0.03247961 0.01872313 0.0146979  0.02866344 0.01850179
- 0.02055884 0.00939886 0.02100866 0.0172633  0.02663838 0.01822017
- 0.02142416 0.0175906  0.02146749 0.02444718 0.03044888 0.01529023
- 0.02016162]</t>
-  </si>
-  <si>
-    <t>[0.01335157 0.00647666 0.01463085 0.00633416 0.26862743 0.03325757
- 0.01610524 0.02863939 0.01599896 0.01185557 0.0245697  0.01559418
- 0.01762342 0.00775965 0.01793298 0.01383917 0.02142941 0.01538597
- 0.01724084 0.01425379 0.01851154 0.01968468 0.02658696 0.01238944
- 0.01681634]</t>
+    <t xml:space="preserve">Sunsetting 3W Projects - DRAFT
+3W Project feature need to be discontinued on GO.
+What does this affect?
+- _project_ api endpoint
+- Project form - Project tab - https://go.ifrc.org/three-w/projects/new
+- Main menu - Prepare - Global 3W Projects 
+- Global 3W Response page - https://go.ifrc.org/three-w/projects
+- Regional 3W pages - e.g.: https://go.ifrc.org/regions/0/three-w
+- Country 3W pages - e.g.: https://go.ifrc.org/countries/124/ongoing-activities/three-w/projects
+- Country pages - NS Activities - NS Activities section - https://go.ifrc.org/countries/124/ns-overview/activities  - Keep 'Active NSD funded initiatives' section
+- All 3W Projects list - https://go.ifrc.org/three-w/projects/all
+- Search results page - Projects section
+- Email notifications for expiring projects
+- Account page - My Forms - 3W tab - 3W Projects section
+- Resources page - Reference videos - 3W - Who does What, Where video
+GO Admin:
+- projects
+- project sectors
+- project sector tags
+- projects import
+GO Wiki:
+https://go-wiki.ifrc.org/en/user_guide/3W_project_form
+https://go-wiki.ifrc.org/en/go-api/Data_dictionary_project
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List, table improvements
+We would like to improve the usability of tables, lists by adding default sorting, sorting options, filtering options. These are specified  in the following table:
+Row | Table Name | URL | What   to do?
+-- | -- | -- | --
+1 | Active Operations | https://go.ifrc.org/ | Set default sorting to By descending Start date
+2 | All Appeals | https://go.ifrc.org/appeals/all | Set default sorting to By descending Start date
+3 | Flash Updates in the last 30 days | https://go.ifrc.org/emergencies | Add common   filtering option for all 3 lists and the map to allow Date after, Date   before, Country, Region, Disaster type
+4 | All Deployed Personnel | https://go.ifrc.org/deployed-personnels/all | Set default sorting to By descending Start date, Add filters for   Deploying Party, Deployed Ro, Emergency
+5 | Deployed   ERUs | https://go.ifrc.org/surge/overview | Change   filter title to 'All ERU Type'
+6 | Key   Documents | https://go.ifrc.org/countries/101/ns-overview/context-and-structure | Set default sorting to By descending date
+7 | Previous Operations | https://go.ifrc.org/countries/101/profile/previous-events | Set default sorting to By descending date
+8 | Active Operations | https://go.ifrc.org/regions/0/operations | Set default sorting to By descending date
+9 | Recent Emergencies | https://go.ifrc.org/regions/0/operations | Set default sorting to By descending date
+  |   |  
+**Emergency   pages** |   |  
+10 | Response   documents | https://go.ifrc.org/emergencies/5854/reports | Set default sorting   to By descending date of upload, Pinned documents should show on the top of   the lists
+11 | Reports | https://go.ifrc.org/emergencies/5854/reports | Set   default sorting to By descending date, Add Sorting option by Created at
+12 | Appeal   Documents | https://go.ifrc.org/emergencies/5854/reports | Set default sorting to By descending date, add sorting option by   Date
+Search Result page lists will be specified in another ticket.
+This is to combine all list, table requests:
+https://github.com/IFRCGo/go-web-app/issues/915
+https://github.com/IFRCGo/go-web-app/issues/998
+[#1002](https://github.com/IFRCGo/go-web-app/issues/1002)
+[#1282](https://github.com/IFRCGo/go-web-app/issues/1282)
+</t>
+  </si>
+  <si>
+    <t>Show key figures for active deployments
+The following key figures should be displayed:
+- Active Rapid Response Personnel
+- Rapid Response Deployments this year
+- Active Emergency Response Units
+- Emergency Response Unit Deployments this year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active Deployments Map
+Visualize:  
+- Active ERU (Emergency Response Unit) deployments  
+- Active Rapid Response deployments  
+Include filters for:  
+- Disaster type  
+- Deployment type  
+Display detailed information in popups for each deployment.
+![Image](https://github.com/user-attachments/assets/d44360e6-cf06-4103-81c1-6660bfd8acf4)
+</t>
+  </si>
+  <si>
+    <t>Active Rapid Response Alerts Table
+Add the Active Rapid Response Alerts Table with the following details:
+- Alert Date
+- Application Deadline
+- Duration
+- Start Date
+- Position
+- Keywords
+- Surge Type
+- Emergency
+- Country
+- Status
+![Image](https://github.com/user-attachments/assets/cf8ad25d-4b16-4d04-924c-e9bbdc3b93f1)</t>
+  </si>
+  <si>
+    <t>Add Ongoing Rapid Response Deployments Table
+Add a table with the following details:
+- Emergency/ Name
+- Position
+- Sector
+- Deploying Organisation
+- Timeline chart
+  - Timeline of the Operation
+  - Timeline of the deployed Rapid Response Personnel 
+Add Filter
+- Sector
+![Image](https://github.com/user-attachments/assets/8ee4a7d1-8a08-4a34-b681-d49ae9ba3699)</t>
+  </si>
+  <si>
+    <t>Ongoing ERU Deployments Table
+- Add ERU Types filter
+- Add Emergency / ERU Type
+- Organisation
+- Timeline chart
+  - Timeline of the Operation
+  - Timeline of the deployed ERU
+![Image](https://github.com/user-attachments/assets/f8ac7ff5-1fc1-45ae-85e3-7e81b1635653)</t>
+  </si>
+  <si>
+    <t>Ongoing Rapid Response Deployments Table
+- Add Sectors filter
+- Emergency / Name
+- Position
+- Sector
+- Deploying Organisation
+- Gantt Chart
+![Image](https://github.com/user-attachments/assets/4bb20fc7-f5e3-4d6f-8a0b-19dc2feb7a41)</t>
+  </si>
+  <si>
+    <t>Active Rapid Response Alerts Table
+Add this table with the following detail:
+- Alert Date
+- Application Deadline
+- Duration
+- Start Date
+- Position
+- Keywords
+- Surge Type
+- Emergency
+- Country
+- Status
+![Image](https://github.com/user-attachments/assets/6966434e-8dbc-40f7-b16b-696c8096e880)</t>
+  </si>
+  <si>
+    <t>List ERU Capacity And Readiness based on ERU Type
+- [ ] Add an "Update ERU Readiness" button to modify the ERU readiness form details.
+- Include filters for:
+  - [ ] National Society
+  - [ ] Sector
+  - [ ] ERU Type
+- Display ERU capacity and readiness for each ERU type.
+![Image](https://github.com/user-attachments/assets/9ad35485-e50a-4149-a7c5-bd804b3a296d)
+- Add a modal to view readiness information for all National Societies for the particular ERU type
+![Image](https://github.com/user-attachments/assets/906103df-cb09-4c6c-8945-c3396bf11310)</t>
+  </si>
+  <si>
+    <t>Ongoing ERU Deployments Table
+- Add ERU Types filter
+- Add Emergency / ERU Type
+- Organisation
+- Timeline chart
+  - Timeline of the Operation
+  - Timeline of the deployed ERU
+![Image](https://github.com/user-attachments/assets/0bfb508c-74cc-4cff-98ed-8f7e012d4106)</t>
   </si>
 </sst>
 </file>
@@ -470,153 +536,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>102</v>
-      </c>
       <c r="B2">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>141</v>
-      </c>
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>145</v>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>146</v>
-      </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>148</v>
-      </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>149</v>
-      </c>
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>151</v>
-      </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>154</v>
-      </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>155</v>
-      </c>
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>158</v>
-      </c>
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>159</v>
-      </c>
       <c r="B12">
         <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>160</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
